--- a/01_MAPE across models_done.xlsx
+++ b/01_MAPE across models_done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahoffaerber\OneDrive - zeb\Dokumente\StockIndicesPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{00A2A61A-2B11-425F-8C56-17CF6D76BE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A8C3D8B-3B64-46DF-B373-AB3F38089969}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{00A2A61A-2B11-425F-8C56-17CF6D76BE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0504209-BC0B-4210-80D1-12CB5D0DEF57}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9960" yWindow="-16440" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -359,6 +359,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,12 +378,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1168,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:Z45"/>
+  <dimension ref="D2:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1294,23 +1294,23 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="6"/>
@@ -1323,31 +1323,31 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="29"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="X7" s="31"/>
+      <c r="X7" s="26"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
@@ -1997,23 +1997,23 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="31" t="s">
+      <c r="R28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
       <c r="W28" s="6"/>
@@ -2026,31 +2026,31 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="23"/>
-      <c r="R29" s="31" t="s">
+      <c r="R29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
       <c r="U29" s="24"/>
       <c r="V29" s="23"/>
-      <c r="W29" s="31" t="s">
+      <c r="W29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="X29" s="31"/>
+      <c r="X29" s="26"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
@@ -2103,52 +2103,28 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:26" ht="5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7">
-        <v>2.298306298472037E-2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1.1961543700739834E-2</v>
-      </c>
-      <c r="J31" s="7">
-        <v>2.327251304712178E-2</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7">
-        <v>6.5784914433490452E-2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2.2917748501889667E-2</v>
-      </c>
-      <c r="O31" s="7">
-        <v>1.7537383804723135E-2</v>
-      </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7">
-        <v>1.4507155340183533E-2</v>
-      </c>
-      <c r="S31" s="7">
-        <v>1.7312845116676183E-2</v>
-      </c>
-      <c r="T31" s="7">
-        <v>1.6678327846568079E-2</v>
-      </c>
-      <c r="U31" s="8"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7">
-        <v>6.1262436944963611E-2</v>
-      </c>
-      <c r="X31" s="7">
-        <v>2.8781694637668789E-2</v>
-      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
@@ -2156,47 +2132,47 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7">
-        <v>3.5282027032498831E-2</v>
+        <v>2.298306298472037E-2</v>
       </c>
       <c r="I32" s="7">
-        <v>1.7038667747273983E-2</v>
+        <v>1.1961543700739834E-2</v>
       </c>
       <c r="J32" s="7">
-        <v>2.2249390137159111E-2</v>
+        <v>2.327251304712178E-2</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7">
-        <v>0.13465377289129701</v>
+        <v>6.5784914433490452E-2</v>
       </c>
       <c r="N32" s="7">
-        <v>3.0902233494945888E-2</v>
+        <v>2.2917748501889667E-2</v>
       </c>
       <c r="O32" s="7">
-        <v>1.991092704297379E-2</v>
+        <v>1.7537383804723135E-2</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7">
-        <v>2.8377459272818008E-2</v>
+        <v>1.4507155340183533E-2</v>
       </c>
       <c r="S32" s="7">
-        <v>3.7070300258450255E-2</v>
+        <v>1.7312845116676183E-2</v>
       </c>
       <c r="T32" s="7">
-        <v>2.3898730692224833E-2</v>
+        <v>1.6678327846568079E-2</v>
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7">
-        <v>4.4721793243421404E-2</v>
+        <v>6.1262436944963611E-2</v>
       </c>
       <c r="X32" s="7">
-        <v>5.0981833564519456E-2</v>
+        <v>2.8781694637668789E-2</v>
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -2205,47 +2181,47 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7">
-        <v>4.010473165597165E-2</v>
+        <v>3.5282027032498831E-2</v>
       </c>
       <c r="I33" s="7">
-        <v>3.0529613480181628E-2</v>
+        <v>1.7038667747273983E-2</v>
       </c>
       <c r="J33" s="7">
-        <v>3.350622469513051E-2</v>
+        <v>2.2249390137159111E-2</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7">
-        <v>5.8461805012506099E-2</v>
+        <v>0.13465377289129701</v>
       </c>
       <c r="N33" s="7">
-        <v>2.6491238205928878E-2</v>
+        <v>3.0902233494945888E-2</v>
       </c>
       <c r="O33" s="7">
-        <v>4.4575348833628084E-2</v>
+        <v>1.991092704297379E-2</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>3.1014970863390993E-2</v>
+        <v>2.8377459272818008E-2</v>
       </c>
       <c r="S33" s="7">
-        <v>3.2225055486302223E-2</v>
+        <v>3.7070300258450255E-2</v>
       </c>
       <c r="T33" s="7">
-        <v>2.7091726509552338E-2</v>
+        <v>2.3898730692224833E-2</v>
       </c>
       <c r="U33" s="8"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7">
-        <v>5.5510459792426164E-2</v>
+        <v>4.4721793243421404E-2</v>
       </c>
       <c r="X33" s="7">
-        <v>0.1121054954059834</v>
+        <v>5.0981833564519456E-2</v>
       </c>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -2254,47 +2230,47 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7">
-        <v>2.4783467399420268E-2</v>
+        <v>4.010473165597165E-2</v>
       </c>
       <c r="I34" s="7">
-        <v>2.5529739712906414E-2</v>
+        <v>3.0529613480181628E-2</v>
       </c>
       <c r="J34" s="7">
-        <v>4.5756797898012111E-2</v>
+        <v>3.350622469513051E-2</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7">
-        <v>0.16277566875587715</v>
+        <v>5.8461805012506099E-2</v>
       </c>
       <c r="N34" s="7">
-        <v>9.6168130750931072E-2</v>
+        <v>2.6491238205928878E-2</v>
       </c>
       <c r="O34" s="7">
-        <v>6.2561443481424672E-2</v>
+        <v>4.4575348833628084E-2</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7">
-        <v>5.3458876406823626E-2</v>
+        <v>3.1014970863390993E-2</v>
       </c>
       <c r="S34" s="7">
-        <v>6.7619494665903446E-2</v>
+        <v>3.2225055486302223E-2</v>
       </c>
       <c r="T34" s="7">
-        <v>5.6887249345229894E-2</v>
+        <v>2.7091726509552338E-2</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7">
-        <v>2.7557531517926781E-2</v>
+        <v>5.5510459792426164E-2</v>
       </c>
       <c r="X34" s="7">
-        <v>0.15934200886218544</v>
+        <v>0.1121054954059834</v>
       </c>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
@@ -2303,47 +2279,47 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7">
-        <v>3.6720302063682472E-2</v>
+        <v>2.4783467399420268E-2</v>
       </c>
       <c r="I35" s="7">
-        <v>3.2618421618805161E-2</v>
+        <v>2.5529739712906414E-2</v>
       </c>
       <c r="J35" s="7">
-        <v>2.3094610053445853E-2</v>
+        <v>4.5756797898012111E-2</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7">
-        <v>2.2802747145998139E-2</v>
+        <v>0.16277566875587715</v>
       </c>
       <c r="N35" s="7">
-        <v>3.1394571696674811E-2</v>
+        <v>9.6168130750931072E-2</v>
       </c>
       <c r="O35" s="7">
-        <v>2.642843879559089E-2</v>
+        <v>6.2561443481424672E-2</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>2.1383531463278885E-2</v>
+        <v>5.3458876406823626E-2</v>
       </c>
       <c r="S35" s="7">
-        <v>1.9808298052148305E-2</v>
+        <v>6.7619494665903446E-2</v>
       </c>
       <c r="T35" s="7">
-        <v>2.1899532396760495E-2</v>
+        <v>5.6887249345229894E-2</v>
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7">
-        <v>7.2310103083553776E-2</v>
+        <v>2.7557531517926781E-2</v>
       </c>
       <c r="X35" s="7">
-        <v>6.0801968490653606E-2</v>
+        <v>0.15934200886218544</v>
       </c>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -2352,247 +2328,263 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7">
-        <v>1.9645011474134409E-2</v>
+        <v>3.6720302063682472E-2</v>
       </c>
       <c r="I36" s="7">
-        <v>4.7981210168470886E-2</v>
+        <v>3.2618421618805161E-2</v>
       </c>
       <c r="J36" s="7">
-        <v>1.9433243603164375E-2</v>
+        <v>2.3094610053445853E-2</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7">
-        <v>2.3883382558042135E-2</v>
+        <v>2.2802747145998139E-2</v>
       </c>
       <c r="N36" s="7">
-        <v>1.2142268791940369E-2</v>
+        <v>3.1394571696674811E-2</v>
       </c>
       <c r="O36" s="7">
-        <v>3.1944829073365287E-2</v>
+        <v>2.642843879559089E-2</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7">
-        <v>1.1694361949810651E-2</v>
+        <v>2.1383531463278885E-2</v>
       </c>
       <c r="S36" s="7">
-        <v>1.0731288303805542E-2</v>
+        <v>1.9808298052148305E-2</v>
       </c>
       <c r="T36" s="7">
-        <v>1.1274378234101306E-2</v>
+        <v>2.1899532396760495E-2</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7">
-        <v>7.738246677563819E-2</v>
+        <v>7.2310103083553776E-2</v>
       </c>
       <c r="X36" s="7">
-        <v>4.6125939260129201E-2</v>
+        <v>6.0801968490653606E-2</v>
       </c>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" spans="4:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7">
-        <v>4.767796243677113E-2</v>
+        <v>1.9645011474134409E-2</v>
       </c>
       <c r="I37" s="7">
-        <v>1.9366656461390193E-2</v>
+        <v>4.7981210168470886E-2</v>
       </c>
       <c r="J37" s="7">
-        <v>4.5207628711597503E-2</v>
+        <v>1.9433243603164375E-2</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7">
-        <v>1.5575203439269958E-2</v>
+        <v>2.3883382558042135E-2</v>
       </c>
       <c r="N37" s="7">
-        <v>2.5110065361853152E-2</v>
+        <v>1.2142268791940369E-2</v>
       </c>
       <c r="O37" s="7">
-        <v>3.3921806179923818E-2</v>
+        <v>3.1944829073365287E-2</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>2.3644119518513213E-2</v>
+        <v>1.1694361949810651E-2</v>
       </c>
       <c r="S37" s="7">
-        <v>2.2681788598104088E-2</v>
+        <v>1.0731288303805542E-2</v>
       </c>
       <c r="T37" s="7">
-        <v>1.9154824184373736E-2</v>
+        <v>1.1274378234101306E-2</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7">
-        <v>2.5282755054186531E-2</v>
+        <v>7.738246677563819E-2</v>
       </c>
       <c r="X37" s="7">
-        <v>0.11508794099362658</v>
+        <v>4.6125939260129201E-2</v>
       </c>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="4:26" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12">
-        <v>3.5282027032498831E-2</v>
-      </c>
-      <c r="I38" s="12">
-        <v>2.5529739712906414E-2</v>
-      </c>
-      <c r="J38" s="12">
-        <v>2.327251304712178E-2</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12">
-        <v>5.8461805012506099E-2</v>
-      </c>
-      <c r="N38" s="12">
-        <v>2.6491238205928878E-2</v>
-      </c>
-      <c r="O38" s="12">
-        <v>3.1944829073365287E-2</v>
-      </c>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12">
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7">
+        <v>4.767796243677113E-2</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1.9366656461390193E-2</v>
+      </c>
+      <c r="J38" s="7">
+        <v>4.5207628711597503E-2</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7">
+        <v>1.5575203439269958E-2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2.5110065361853152E-2</v>
+      </c>
+      <c r="O38" s="7">
+        <v>3.3921806179923818E-2</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7">
         <v>2.3644119518513213E-2</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="7">
         <v>2.2681788598104088E-2</v>
       </c>
-      <c r="T38" s="12">
-        <v>2.1899532396760495E-2</v>
-      </c>
-      <c r="U38" s="13"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12">
-        <v>5.5510459792426164E-2</v>
-      </c>
-      <c r="X38" s="12">
-        <v>6.0801968490653606E-2</v>
+      <c r="T38" s="7">
+        <v>1.9154824184373736E-2</v>
+      </c>
+      <c r="U38" s="8"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7">
+        <v>2.5282755054186531E-2</v>
+      </c>
+      <c r="X38" s="7">
+        <v>0.11508794099362658</v>
       </c>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:26" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
     </row>
-    <row r="40" spans="4:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:26" ht="5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="9">
-        <v>4.767796243677113E-2</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
+      <c r="F41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="7">
+        <v>3.5282027032498831E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2.5529739712906414E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2.327251304712178E-2</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7">
+        <v>5.8461805012506099E-2</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2.6491238205928878E-2</v>
+      </c>
+      <c r="O41" s="7">
+        <v>3.1944829073365287E-2</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>2.3644119518513213E-2</v>
+      </c>
+      <c r="S41" s="7">
+        <v>2.2681788598104088E-2</v>
+      </c>
+      <c r="T41" s="7">
+        <v>2.1899532396760495E-2</v>
+      </c>
+      <c r="U41" s="8"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7">
+        <v>5.5510459792426164E-2</v>
+      </c>
+      <c r="X41" s="7">
+        <v>6.0801968490653606E-2</v>
+      </c>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
     <row r="42" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="7">
-        <v>2.4783467399420268E-2</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="6"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
@@ -2603,16 +2595,12 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="8">
-        <v>1.9154824184373736E-2</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -2635,9 +2623,13 @@
     <row r="44" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="F44" s="9">
+        <v>4.767796243677113E-2</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -2660,9 +2652,13 @@
     <row r="45" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="F45" s="7">
+        <v>2.4783467399420268E-2</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -2682,8 +2678,92 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8">
+        <v>1.9154824184373736E-2</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="R7:T7"/>
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="H28:O28"/>
     <mergeCell ref="R28:T28"/>
@@ -2691,11 +2771,6 @@
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="R29:T29"/>
     <mergeCell ref="W29:X29"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="R7:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:X9">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThan">
@@ -2761,84 +2836,84 @@
   <conditionalFormatting sqref="R16:V16">
     <cfRule type="top10" dxfId="24" priority="25" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:X31">
+  <conditionalFormatting sqref="H32:X32">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
       <formula>$W$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:X38">
+  <conditionalFormatting sqref="H33:X41">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
-      <formula>$W32</formula>
+      <formula>$W33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:Q31">
+  <conditionalFormatting sqref="H32:Q32">
     <cfRule type="top10" dxfId="21" priority="22" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:Q32">
+  <conditionalFormatting sqref="H33:Q33">
     <cfRule type="top10" dxfId="20" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:Q33">
+  <conditionalFormatting sqref="H34:Q34">
     <cfRule type="top10" dxfId="19" priority="20" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:Q34">
+  <conditionalFormatting sqref="H35:Q35">
     <cfRule type="top10" dxfId="18" priority="19" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:Q35">
+  <conditionalFormatting sqref="H36:Q36">
     <cfRule type="top10" dxfId="17" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:Q36">
+  <conditionalFormatting sqref="H37:Q37">
     <cfRule type="top10" dxfId="16" priority="17" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:Q37">
+  <conditionalFormatting sqref="H38:Q40">
     <cfRule type="top10" dxfId="15" priority="16" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:Q38">
+  <conditionalFormatting sqref="H41:Q41">
     <cfRule type="top10" dxfId="14" priority="15" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R31:V31">
+  <conditionalFormatting sqref="R32:V32">
     <cfRule type="top10" dxfId="13" priority="14" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:V32">
+  <conditionalFormatting sqref="R33:V33">
     <cfRule type="top10" dxfId="12" priority="13" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R33:V33">
+  <conditionalFormatting sqref="R34:V34">
     <cfRule type="top10" dxfId="11" priority="12" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34:V34">
+  <conditionalFormatting sqref="R35:V35">
     <cfRule type="top10" dxfId="10" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R35:V35">
+  <conditionalFormatting sqref="R36:V36">
     <cfRule type="top10" dxfId="9" priority="10" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R36:V36">
+  <conditionalFormatting sqref="R37:V37">
     <cfRule type="top10" dxfId="8" priority="9" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R37:V37">
+  <conditionalFormatting sqref="R38:V40">
     <cfRule type="top10" dxfId="7" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:V38">
+  <conditionalFormatting sqref="R41:V41">
     <cfRule type="top10" dxfId="6" priority="7" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:X38">
+  <conditionalFormatting sqref="H41:X41">
     <cfRule type="top10" dxfId="5" priority="6" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:V38">
+  <conditionalFormatting sqref="R41:V41">
     <cfRule type="top10" dxfId="4" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:G42">
+  <conditionalFormatting sqref="F45:G45">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>$W41</formula>
+      <formula>$W44</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:G42">
+  <conditionalFormatting sqref="F45:G45">
     <cfRule type="top10" dxfId="2" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:G43">
+  <conditionalFormatting sqref="F46:G46">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>$W42</formula>
+      <formula>$W45</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:G43">
+  <conditionalFormatting sqref="F46:G46">
     <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
